--- a/Vysti Rules for Writing.xlsx
+++ b/Vysti Rules for Writing.xlsx
@@ -276,7 +276,7 @@
 Overall, qualifying language is an important tool for making your argument more precise, accurate, and persuasive. By using words like 'rarely' instead of 'never,' you can better convey the complexity of your argument and make it more compelling to your audience.</t>
   </si>
   <si>
-    <t>Refer to the Power Verbs list</t>
+    <t>Avoid weak verbs</t>
   </si>
   <si>
     <r>

--- a/Vysti Rules for Writing.xlsx
+++ b/Vysti Rules for Writing.xlsx
@@ -478,7 +478,7 @@
     <t>First mention: full name. After that: last name only.</t>
   </si>
   <si>
-    <t>The first sentence must state the author's full name, genre and title of the text, and present a concrete and general summary</t>
+    <t>The first sentence should state the author's full name, genre and title of the text, and present a concrete and general summary</t>
   </si>
   <si>
     <t>The first sentence of an analytic essay must state the author’s full name (as commonly printed), the genre and full title of the text, and a concrete, text-bound summary of the object to be analyzed.
@@ -488,7 +488,7 @@
 The opening summary must be concrete, complete, and non-interpretive, limited to the world inside the text. The purpose is orientation, not interpretation. Irrelevant details, such as dates with no stated significance, should be omitted. If the information does not matter, it does not belong in the first sentence.</t>
   </si>
   <si>
-    <t>First sentence formula: In this [genre], [Author Full Name] [strong verb] [Title], showing [one-sentence summary].</t>
+    <t>For an analytic essay, Vysti recommends that the first sentence include : Author Full Name + genre + Title + summary.</t>
   </si>
   <si>
     <t>The title of major works should be italicized</t>

--- a/Vysti Rules for Writing.xlsx
+++ b/Vysti Rules for Writing.xlsx
@@ -103,10 +103,10 @@
     <t>No quotes in the intro. Paraphrase the text and save quotes for body paragraphs.</t>
   </si>
   <si>
-    <t>Avoid using the word 'and' more than once in a sentence</t>
+    <t>Avoid using the word 'and' more than twice in a sentence</t>
   </si>
   <si>
-    <t>Sometimes students will use the word 'and' to continue adding on to a sentence, creating a sentence that is either a run-on sentence or that is attempting to accomplish too much at once, reducing clarity. If the word 'and' must be used more than once, try to substitute 'and' with 'alongside', 'along with', 'in conjunction with' or 'as well as'. The student might also consider breaking the sentence up into multiple sentences. Clarity is more important than complexity.</t>
+    <t>Sometimes students will use the word 'and' to continue adding on to a sentence, creating a sentence that is either a run-on sentence or that is attempting to accomplish too much at once, reducing clarity. If the word 'and' must be used more often, try to substitute 'and' with 'alongside', 'along with', 'in conjunction with' or 'as well as'. The student might also consider breaking the sentence up into multiple sentences. Clarity is more important than complexity.</t>
   </si>
   <si>
     <t>If you used “and” twice, split the sentence or replace one “and” with a clearer link (because/while/so).</t>

--- a/Vysti Rules for Writing.xlsx
+++ b/Vysti Rules for Writing.xlsx
@@ -64,7 +64,7 @@
     <t>Generally speaking, there is nothing wrong with using 'which' in a sentence, but by avoiding using 'which' our sentences will be clearer and more to the point. 'Which' identifies a non-restrictive clause in a sentence, meaning that it sets off in commas a phrase that is unnecessary to the point of the sentence. Since the information is unnecessary for the sentence's meaning, it might best be to leave the information out of the sentence to avoid wordiness.</t>
   </si>
   <si>
-    <t>Rewrite without “which.” Split the sentence, or rephrase so the idea is clearer.</t>
+    <t>Rewrite without “which,” usually by turning the verb following which into the -ing form.</t>
   </si>
   <si>
     <t>Avoid using the words 'human', 'people', 'everyone', or 'individual'</t>
@@ -448,7 +448,7 @@
     </r>
   </si>
   <si>
-    <t>Replace {FOUND} (show/use) with a stronger verb: argues, reveals, highlights, suggests, demonstrates.</t>
+    <t>Replace {FOUND} (show/use) with a stronger verb.</t>
   </si>
   <si>
     <t>Remove all semi-colons</t>
@@ -463,7 +463,7 @@
     <t>Shorten, modify, and integrate quotations</t>
   </si>
   <si>
-    <t>Quotations should slip into your prose so naturally that a listener wouldn’t notice them unless you pointed them out. Keep them brief—ideally five words or fewer—and adjust grammar or clarity with [brackets] when necessary. For example: At the party, the narrator 'dance[s] [and] sings' happily, unaware that someone is 'lurking in [the] shadows'.</t>
+    <t>Quotations should slip into your prose so naturally that a listener wouldn’t notice them unless you pointed them out. Keep them brief—ideally six words or fewer—and adjust grammar or clarity with [brackets] when necessary. For example: At the party, the narrator 'dance[s] [and] sings' happily, unaware that someone is 'lurking in [the] shadows'.</t>
   </si>
   <si>
     <t>Quote fewer words. Use ellipses/brackets if needed, and weave the quote into your sentence.</t>

--- a/Vysti Rules for Writing.xlsx
+++ b/Vysti Rules for Writing.xlsx
@@ -407,48 +407,10 @@
     <t>Avoid weak verbs</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Students should better consider their verb choices for impact and variety. It is recommended to avoid certain verb choices due to their reductive nature, weakness, or overuse: demonstrates, emphasizes, makes, represents, shows, states, symbolizes, uses. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>Download the Power Verbs</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> at </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>www.vysti.org</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> for a list of powerful verb choices to use in your writing.</t>
-    </r>
+    <t>Students should better consider their verb choices for impact and variety. It is recommended to avoid certain verb choices due to their reductive nature, weakness, or overuse: demonstrates, emphasizes, makes, represents, shows, states, symbolizes, uses. Click on the Power Verbs dictionary for some ideas.</t>
   </si>
   <si>
-    <t>Replace {FOUND} (show/use) with a stronger verb.</t>
+    <t>Replace {FOUND} with a stronger verb.</t>
   </si>
   <si>
     <t>Remove all semi-colons</t>
@@ -584,7 +546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -610,12 +572,6 @@
     <font>
       <color theme="1"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
@@ -745,7 +701,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -759,8 +715,8 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -27587,9 +27543,6 @@
       <c r="Y978" s="25"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B39"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>